--- a/MissChou毕业论文/X公司部门人员统计.xlsx
+++ b/MissChou毕业论文/X公司部门人员统计.xlsx
@@ -450,12 +450,15 @@
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="7.875" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
